--- a/Unity/GameData/DataTables/Core/UIGroupTable.xlsx
+++ b/Unity/GameData/DataTables/Core/UIGroupTable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>界面深度</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
   <si>
     <t>一直处于底部的界面</t>
@@ -1253,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1319,86 +1322,98 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1">
-        <v>5</v>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
